--- a/va_facility_data_2025-02-20/Bryan VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bryan%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bryan VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bryan%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2bd1ee793f584c0ab6244eb158a7fa81"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R446f91ccedd844a68bce301261ded576"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re76875e4555c4144ac2fd153470ee270"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0b701699a3f14a579a00ac4ef275dd4e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd397f61a2e2344bf86a507d32c9dd47e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra782e5757a42462cbf3a0f8b48382d88"/>
   </x:sheets>
 </x:workbook>
 </file>
